--- a/DSA2/task11stack/function.xlsx
+++ b/DSA2/task11stack/function.xlsx
@@ -11,15 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>singing</t>
-  </si>
-  <si>
-    <t>dancing</t>
-  </si>
-  <si>
-    <t>arrangment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EC</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="2">
@@ -287,7 +293,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -295,7 +301,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
